--- a/docs/analysis/TestPlan.xlsx
+++ b/docs/analysis/TestPlan.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="293">
   <si>
     <t>Test Environment information</t>
   </si>
@@ -902,15 +902,6 @@
   </si>
   <si>
     <t>Enregistrement en base</t>
-  </si>
-  <si>
-    <t>Lien inactif</t>
-  </si>
-  <si>
-    <t>Edition d'un court</t>
-  </si>
-  <si>
-    <t>Update en base</t>
   </si>
   <si>
     <t>Suppression d'un court</t>
@@ -1101,13 +1092,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Lien hypertexte" xfId="6" builtinId="8"/>
@@ -1118,7 +1109,7 @@
     <cellStyle name="Titre 1" xfId="3" builtinId="16"/>
     <cellStyle name="Titre 4" xfId="4" builtinId="19"/>
   </cellStyles>
-  <dxfs count="106">
+  <dxfs count="102">
     <dxf>
       <font>
         <color auto="1"/>
@@ -1154,33 +1145,6 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <color auto="1"/>
       </font>
@@ -1266,33 +1230,6 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <color auto="1"/>
       </font>
@@ -1531,38 +1468,58 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1859,121 +1816,121 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A20:C23" totalsRowShown="0" headerRowDxfId="105" dataDxfId="104">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A20:C23" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100">
   <tableColumns count="3">
-    <tableColumn id="1" name="Test Results Summary (Auto Calculated)" dataDxfId="103"/>
-    <tableColumn id="2" name="Number" dataDxfId="102">
+    <tableColumn id="1" name="Test Results Summary (Auto Calculated)" dataDxfId="99"/>
+    <tableColumn id="2" name="Number" dataDxfId="98">
       <calculatedColumnFormula>SUM('Register and login'!D2,Accueil!D2,Utilisateurs!D2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Percent" dataDxfId="101"/>
+    <tableColumn id="3" name="Percent" dataDxfId="97"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A3:C8" totalsRowShown="0" headerRowDxfId="100" dataDxfId="99">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A3:C8" totalsRowShown="0" headerRowDxfId="96" dataDxfId="95">
   <tableColumns count="3">
-    <tableColumn id="1" name="Reference Information" dataDxfId="98"/>
-    <tableColumn id="2" name="…" dataDxfId="97"/>
-    <tableColumn id="3" name="Comments" dataDxfId="96"/>
+    <tableColumn id="1" name="Reference Information" dataDxfId="94"/>
+    <tableColumn id="2" name="…" dataDxfId="93"/>
+    <tableColumn id="3" name="Comments" dataDxfId="92"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A10:C17" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A10:C17" totalsRowShown="0" headerRowDxfId="91" dataDxfId="90">
   <autoFilter ref="A10:C17"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Change Log" dataDxfId="93"/>
-    <tableColumn id="2" name="Person" dataDxfId="92"/>
-    <tableColumn id="3" name="Date" dataDxfId="91"/>
+    <tableColumn id="1" name="Change Log" dataDxfId="89"/>
+    <tableColumn id="2" name="Person" dataDxfId="88"/>
+    <tableColumn id="3" name="Date" dataDxfId="87"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:H74" totalsRowShown="0" dataDxfId="90">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:H74" totalsRowShown="0" dataDxfId="86">
   <autoFilter ref="A8:H74"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Test Case ID" dataDxfId="89"/>
-    <tableColumn id="2" name="Test Case Description" dataDxfId="88"/>
-    <tableColumn id="3" name="Expected Result" dataDxfId="87"/>
-    <tableColumn id="4" name="Test Data" dataDxfId="86"/>
-    <tableColumn id="5" name="Actual Result" dataDxfId="85"/>
-    <tableColumn id="6" name="Status" dataDxfId="84"/>
-    <tableColumn id="7" name="Tester" dataDxfId="83"/>
-    <tableColumn id="9" name="Comments" dataDxfId="82"/>
+    <tableColumn id="1" name="Test Case ID" dataDxfId="85"/>
+    <tableColumn id="2" name="Test Case Description" dataDxfId="84"/>
+    <tableColumn id="3" name="Expected Result" dataDxfId="83"/>
+    <tableColumn id="4" name="Test Data" dataDxfId="82"/>
+    <tableColumn id="5" name="Actual Result" dataDxfId="81"/>
+    <tableColumn id="6" name="Status" dataDxfId="80"/>
+    <tableColumn id="7" name="Tester" dataDxfId="79"/>
+    <tableColumn id="9" name="Comments" dataDxfId="78"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:H74" totalsRowShown="0" dataDxfId="81">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:H74" totalsRowShown="0" dataDxfId="77">
   <autoFilter ref="A8:H74"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Test Case ID" dataDxfId="80"/>
-    <tableColumn id="2" name="Test Case Description" dataDxfId="79"/>
-    <tableColumn id="3" name="Expected Result" dataDxfId="78"/>
-    <tableColumn id="4" name="Test Data" dataDxfId="77"/>
-    <tableColumn id="5" name="Actual Result" dataDxfId="76"/>
-    <tableColumn id="6" name="Status" dataDxfId="75"/>
-    <tableColumn id="7" name="Tester" dataDxfId="74"/>
-    <tableColumn id="9" name="Comments" dataDxfId="73"/>
+    <tableColumn id="1" name="Test Case ID" dataDxfId="76"/>
+    <tableColumn id="2" name="Test Case Description" dataDxfId="75"/>
+    <tableColumn id="3" name="Expected Result" dataDxfId="74"/>
+    <tableColumn id="4" name="Test Data" dataDxfId="73"/>
+    <tableColumn id="5" name="Actual Result" dataDxfId="72"/>
+    <tableColumn id="6" name="Status" dataDxfId="71"/>
+    <tableColumn id="7" name="Tester" dataDxfId="70"/>
+    <tableColumn id="9" name="Comments" dataDxfId="69"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A8:H74" totalsRowShown="0" dataDxfId="72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A8:H74" totalsRowShown="0" dataDxfId="68">
   <autoFilter ref="A8:H74"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Test Case ID" dataDxfId="71"/>
-    <tableColumn id="2" name="Test Case Description" dataDxfId="70"/>
-    <tableColumn id="3" name="Expected Result" dataDxfId="69"/>
-    <tableColumn id="4" name="Test Data" dataDxfId="68"/>
-    <tableColumn id="5" name="Actual Result" dataDxfId="67"/>
-    <tableColumn id="6" name="Status" dataDxfId="66"/>
-    <tableColumn id="7" name="Tester" dataDxfId="65"/>
-    <tableColumn id="9" name="Comments" dataDxfId="64"/>
+    <tableColumn id="1" name="Test Case ID" dataDxfId="67"/>
+    <tableColumn id="2" name="Test Case Description" dataDxfId="66"/>
+    <tableColumn id="3" name="Expected Result" dataDxfId="65"/>
+    <tableColumn id="4" name="Test Data" dataDxfId="64"/>
+    <tableColumn id="5" name="Actual Result" dataDxfId="63"/>
+    <tableColumn id="6" name="Status" dataDxfId="62"/>
+    <tableColumn id="7" name="Tester" dataDxfId="61"/>
+    <tableColumn id="9" name="Comments" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table136" displayName="Table136" ref="A8:H74" totalsRowShown="0" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table136" displayName="Table136" ref="A8:H74" totalsRowShown="0" dataDxfId="59">
   <autoFilter ref="A8:H74"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Test Case ID" dataDxfId="30"/>
-    <tableColumn id="2" name="Test Case Description" dataDxfId="29"/>
-    <tableColumn id="3" name="Expected Result" dataDxfId="28"/>
-    <tableColumn id="4" name="Test Data" dataDxfId="27"/>
-    <tableColumn id="5" name="Actual Result" dataDxfId="26"/>
-    <tableColumn id="6" name="Status" dataDxfId="25"/>
-    <tableColumn id="7" name="Tester" dataDxfId="24"/>
-    <tableColumn id="9" name="Comments" dataDxfId="23"/>
+    <tableColumn id="1" name="Test Case ID" dataDxfId="58"/>
+    <tableColumn id="2" name="Test Case Description" dataDxfId="57"/>
+    <tableColumn id="3" name="Expected Result" dataDxfId="56"/>
+    <tableColumn id="4" name="Test Data" dataDxfId="55"/>
+    <tableColumn id="5" name="Actual Result" dataDxfId="54"/>
+    <tableColumn id="6" name="Status" dataDxfId="53"/>
+    <tableColumn id="7" name="Tester" dataDxfId="52"/>
+    <tableColumn id="9" name="Comments" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table1369" displayName="Table1369" ref="A8:H74" totalsRowShown="0" dataDxfId="12">
-  <autoFilter ref="A8:H74"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table1369" displayName="Table1369" ref="A8:H73" totalsRowShown="0" dataDxfId="50">
+  <autoFilter ref="A8:H73"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Test Case ID" dataDxfId="11"/>
-    <tableColumn id="2" name="Test Case Description" dataDxfId="10"/>
-    <tableColumn id="3" name="Expected Result" dataDxfId="9"/>
-    <tableColumn id="4" name="Test Data" dataDxfId="8"/>
-    <tableColumn id="5" name="Actual Result" dataDxfId="7"/>
-    <tableColumn id="6" name="Status" dataDxfId="6"/>
-    <tableColumn id="7" name="Tester" dataDxfId="5"/>
-    <tableColumn id="9" name="Comments" dataDxfId="4"/>
+    <tableColumn id="1" name="Test Case ID" dataDxfId="49"/>
+    <tableColumn id="2" name="Test Case Description" dataDxfId="48"/>
+    <tableColumn id="3" name="Expected Result" dataDxfId="47"/>
+    <tableColumn id="4" name="Test Data" dataDxfId="46"/>
+    <tableColumn id="5" name="Actual Result" dataDxfId="45"/>
+    <tableColumn id="6" name="Status" dataDxfId="44"/>
+    <tableColumn id="7" name="Tester" dataDxfId="43"/>
+    <tableColumn id="9" name="Comments" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2304,14 +2261,14 @@
       <c r="C3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
     </row>
     <row r="4" spans="1:12" ht="18.75">
       <c r="A4" s="10" t="s">
@@ -2321,31 +2278,31 @@
         <v>240</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:12" ht="18.75">
       <c r="A5" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="17">
         <v>43606</v>
       </c>
       <c r="C5" s="10"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
     </row>
     <row r="6" spans="1:12" ht="18.75">
       <c r="A6" s="10" t="s">
@@ -2355,14 +2312,14 @@
         <v>241</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
     </row>
     <row r="7" spans="1:12" ht="18.75">
       <c r="A7" s="10" t="s">
@@ -2370,14 +2327,14 @@
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
     </row>
     <row r="8" spans="1:12" ht="18.75">
       <c r="A8" s="10" t="s">
@@ -2385,14 +2342,14 @@
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
     </row>
     <row r="10" spans="1:12" ht="18.75">
       <c r="A10" s="10" t="s">
@@ -2412,92 +2369,92 @@
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="14"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
     </row>
     <row r="12" spans="1:12" ht="18.75">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="15"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
     </row>
     <row r="13" spans="1:12" ht="18.75">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="15"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
     </row>
     <row r="14" spans="1:12" ht="18.75">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="15"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
     </row>
     <row r="15" spans="1:12" ht="18.75">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="15"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
     </row>
     <row r="16" spans="1:12" ht="18.75">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="15"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
     </row>
     <row r="17" spans="1:13" ht="18.75">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="15"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
     </row>
     <row r="20" spans="1:13" ht="18.75">
       <c r="A20" s="10" t="s">
@@ -2516,11 +2473,11 @@
       </c>
       <c r="B21" s="10">
         <f>SUM('Register and login'!D2,Accueil!D2,Utilisateurs!D2)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C21" s="11">
         <f>B21/SUM(B21:B23)</f>
-        <v>5.6410256410256411E-2</v>
+        <v>6.1538461538461542E-2</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="18.75">
@@ -2529,11 +2486,11 @@
       </c>
       <c r="B22" s="12">
         <f>SUM('Register and login'!D3,Accueil!D3,Utilisateurs!D3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" s="11">
         <f>B22/SUM(B21:B23)</f>
-        <v>1.0256410256410256E-2</v>
+        <v>5.1282051282051282E-3</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="18.75">
@@ -2574,7 +2531,7 @@
   <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2611,7 +2568,7 @@
       </c>
       <c r="D2" s="5">
         <f>COUNTIF(F:F,"Pass")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>234</v>
@@ -2629,7 +2586,7 @@
       </c>
       <c r="D3" s="5">
         <f>COUNTIF(F:F,"Fail")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>156</v>
@@ -2787,7 +2744,7 @@
         <v>259</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>249</v>
@@ -3938,18 +3895,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A9:H11 A12:F12 H12 A13:H74">
-    <cfRule type="expression" dxfId="63" priority="3">
+    <cfRule type="expression" dxfId="41" priority="3">
       <formula>$F9="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="4">
+    <cfRule type="expression" dxfId="40" priority="4">
       <formula>$F9="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="61" priority="1">
+    <cfRule type="expression" dxfId="39" priority="1">
       <formula>$F12="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="2">
+    <cfRule type="expression" dxfId="38" priority="2">
       <formula>$F12="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3973,7 +3930,7 @@
   <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4099,7 +4056,7 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="45">
+    <row r="10" spans="1:8" ht="30">
       <c r="A10" s="2" t="s">
         <v>91</v>
       </c>
@@ -4121,7 +4078,7 @@
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="45">
+    <row r="11" spans="1:8" ht="30">
       <c r="A11" s="2" t="s">
         <v>92</v>
       </c>
@@ -5312,42 +5269,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A13:H74 A9:F12 H9:H12">
-    <cfRule type="expression" dxfId="59" priority="9">
+    <cfRule type="expression" dxfId="37" priority="9">
       <formula>$F9="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="10">
+    <cfRule type="expression" dxfId="36" priority="10">
       <formula>$F9="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="57" priority="7">
+    <cfRule type="expression" dxfId="35" priority="7">
       <formula>$F9="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="8">
+    <cfRule type="expression" dxfId="34" priority="8">
       <formula>$F9="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="55" priority="5">
+    <cfRule type="expression" dxfId="33" priority="5">
       <formula>$F10="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="6">
+    <cfRule type="expression" dxfId="32" priority="6">
       <formula>$F10="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="53" priority="3">
+    <cfRule type="expression" dxfId="31" priority="3">
       <formula>$F11="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="4">
+    <cfRule type="expression" dxfId="30" priority="4">
       <formula>$F11="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="51" priority="1">
+    <cfRule type="expression" dxfId="29" priority="1">
       <formula>$F12="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="2">
+    <cfRule type="expression" dxfId="28" priority="2">
       <formula>$F12="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6696,34 +6653,34 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A12:H74 H9:H11 A9:F11">
-    <cfRule type="expression" dxfId="49" priority="7">
+    <cfRule type="expression" dxfId="27" priority="7">
       <formula>$F9="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="8">
+    <cfRule type="expression" dxfId="26" priority="8">
       <formula>$F9="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="47" priority="5">
+    <cfRule type="expression" dxfId="25" priority="5">
       <formula>$F9="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="6">
+    <cfRule type="expression" dxfId="24" priority="6">
       <formula>$F9="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="45" priority="3">
+    <cfRule type="expression" dxfId="23" priority="3">
       <formula>$F10="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="4">
+    <cfRule type="expression" dxfId="22" priority="4">
       <formula>$F10="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="43" priority="1">
+    <cfRule type="expression" dxfId="21" priority="1">
       <formula>$F11="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="2">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>$F11="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8072,42 +8029,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A13:H74 H9:H12 A9:F12">
-    <cfRule type="expression" dxfId="41" priority="9">
+    <cfRule type="expression" dxfId="19" priority="9">
       <formula>$F9="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="10">
+    <cfRule type="expression" dxfId="18" priority="10">
       <formula>$F9="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="39" priority="7">
+    <cfRule type="expression" dxfId="17" priority="7">
       <formula>$F9="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="8">
+    <cfRule type="expression" dxfId="16" priority="8">
       <formula>$F9="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="37" priority="5">
+    <cfRule type="expression" dxfId="15" priority="5">
       <formula>$F10="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="6">
+    <cfRule type="expression" dxfId="14" priority="6">
       <formula>$F10="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="35" priority="3">
+    <cfRule type="expression" dxfId="13" priority="3">
       <formula>$F11="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="4">
+    <cfRule type="expression" dxfId="12" priority="4">
       <formula>$F11="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="33" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>$F12="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>$F12="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8124,10 +8081,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -8164,7 +8121,7 @@
       </c>
       <c r="D2" s="5">
         <f>COUNTIF(F:F,"Pass")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>234</v>
@@ -8182,7 +8139,7 @@
       </c>
       <c r="D3" s="5">
         <f>COUNTIF(F:F,"Fail")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>156</v>
@@ -8263,10 +8220,10 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>249</v>
@@ -8275,19 +8232,20 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>292</v>
-      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>249</v>
@@ -8296,51 +8254,43 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>249</v>
       </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" ht="30">
       <c r="A13" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>289</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
-        <v>289</v>
-      </c>
+      <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>249</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" ht="30">
       <c r="A14" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -8354,7 +8304,7 @@
     </row>
     <row r="15" spans="1:8" ht="30">
       <c r="A15" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -8368,7 +8318,7 @@
     </row>
     <row r="16" spans="1:8" ht="30">
       <c r="A16" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -8382,7 +8332,7 @@
     </row>
     <row r="17" spans="1:8" ht="30">
       <c r="A17" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -8396,7 +8346,7 @@
     </row>
     <row r="18" spans="1:8" ht="30">
       <c r="A18" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -8410,7 +8360,7 @@
     </row>
     <row r="19" spans="1:8" ht="30">
       <c r="A19" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -8424,7 +8374,7 @@
     </row>
     <row r="20" spans="1:8" ht="30">
       <c r="A20" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -8438,7 +8388,7 @@
     </row>
     <row r="21" spans="1:8" ht="30">
       <c r="A21" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -8452,7 +8402,7 @@
     </row>
     <row r="22" spans="1:8" ht="30">
       <c r="A22" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -8466,7 +8416,7 @@
     </row>
     <row r="23" spans="1:8" ht="30">
       <c r="A23" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -8480,7 +8430,7 @@
     </row>
     <row r="24" spans="1:8" ht="30">
       <c r="A24" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -8494,7 +8444,7 @@
     </row>
     <row r="25" spans="1:8" ht="30">
       <c r="A25" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -8508,7 +8458,7 @@
     </row>
     <row r="26" spans="1:8" ht="30">
       <c r="A26" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -8522,7 +8472,7 @@
     </row>
     <row r="27" spans="1:8" ht="30">
       <c r="A27" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -8536,7 +8486,7 @@
     </row>
     <row r="28" spans="1:8" ht="30">
       <c r="A28" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -8550,7 +8500,7 @@
     </row>
     <row r="29" spans="1:8" ht="30">
       <c r="A29" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -8564,7 +8514,7 @@
     </row>
     <row r="30" spans="1:8" ht="30">
       <c r="A30" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -8578,7 +8528,7 @@
     </row>
     <row r="31" spans="1:8" ht="30">
       <c r="A31" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -8592,7 +8542,7 @@
     </row>
     <row r="32" spans="1:8" ht="30">
       <c r="A32" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -8606,7 +8556,7 @@
     </row>
     <row r="33" spans="1:8" ht="30">
       <c r="A33" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -8620,7 +8570,7 @@
     </row>
     <row r="34" spans="1:8" ht="30">
       <c r="A34" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -8634,7 +8584,7 @@
     </row>
     <row r="35" spans="1:8" ht="30">
       <c r="A35" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -8648,7 +8598,7 @@
     </row>
     <row r="36" spans="1:8" ht="30">
       <c r="A36" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -8662,7 +8612,7 @@
     </row>
     <row r="37" spans="1:8" ht="30">
       <c r="A37" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -8676,7 +8626,7 @@
     </row>
     <row r="38" spans="1:8" ht="30">
       <c r="A38" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -8690,7 +8640,7 @@
     </row>
     <row r="39" spans="1:8" ht="30">
       <c r="A39" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -8704,7 +8654,7 @@
     </row>
     <row r="40" spans="1:8" ht="30">
       <c r="A40" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -8718,7 +8668,7 @@
     </row>
     <row r="41" spans="1:8" ht="30">
       <c r="A41" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -8732,7 +8682,7 @@
     </row>
     <row r="42" spans="1:8" ht="30">
       <c r="A42" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -8746,7 +8696,7 @@
     </row>
     <row r="43" spans="1:8" ht="30">
       <c r="A43" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -8760,7 +8710,7 @@
     </row>
     <row r="44" spans="1:8" ht="30">
       <c r="A44" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -8774,7 +8724,7 @@
     </row>
     <row r="45" spans="1:8" ht="30">
       <c r="A45" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -8788,7 +8738,7 @@
     </row>
     <row r="46" spans="1:8" ht="30">
       <c r="A46" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -8802,7 +8752,7 @@
     </row>
     <row r="47" spans="1:8" ht="30">
       <c r="A47" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -8816,7 +8766,7 @@
     </row>
     <row r="48" spans="1:8" ht="30">
       <c r="A48" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -8830,7 +8780,7 @@
     </row>
     <row r="49" spans="1:8" ht="30">
       <c r="A49" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -8844,7 +8794,7 @@
     </row>
     <row r="50" spans="1:8" ht="30">
       <c r="A50" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -8858,7 +8808,7 @@
     </row>
     <row r="51" spans="1:8" ht="30">
       <c r="A51" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -8872,7 +8822,7 @@
     </row>
     <row r="52" spans="1:8" ht="30">
       <c r="A52" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -8886,7 +8836,7 @@
     </row>
     <row r="53" spans="1:8" ht="30">
       <c r="A53" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -8900,7 +8850,7 @@
     </row>
     <row r="54" spans="1:8" ht="30">
       <c r="A54" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -8914,7 +8864,7 @@
     </row>
     <row r="55" spans="1:8" ht="30">
       <c r="A55" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -8928,7 +8878,7 @@
     </row>
     <row r="56" spans="1:8" ht="30">
       <c r="A56" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -8942,7 +8892,7 @@
     </row>
     <row r="57" spans="1:8" ht="30">
       <c r="A57" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -8956,7 +8906,7 @@
     </row>
     <row r="58" spans="1:8" ht="30">
       <c r="A58" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -8970,7 +8920,7 @@
     </row>
     <row r="59" spans="1:8" ht="30">
       <c r="A59" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -8984,7 +8934,7 @@
     </row>
     <row r="60" spans="1:8" ht="30">
       <c r="A60" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -8998,7 +8948,7 @@
     </row>
     <row r="61" spans="1:8" ht="30">
       <c r="A61" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -9012,7 +8962,7 @@
     </row>
     <row r="62" spans="1:8" ht="30">
       <c r="A62" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -9026,7 +8976,7 @@
     </row>
     <row r="63" spans="1:8" ht="30">
       <c r="A63" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -9040,7 +8990,7 @@
     </row>
     <row r="64" spans="1:8" ht="30">
       <c r="A64" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -9054,7 +9004,7 @@
     </row>
     <row r="65" spans="1:8" ht="30">
       <c r="A65" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -9068,7 +9018,7 @@
     </row>
     <row r="66" spans="1:8" ht="30">
       <c r="A66" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -9082,7 +9032,7 @@
     </row>
     <row r="67" spans="1:8" ht="30">
       <c r="A67" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -9096,7 +9046,7 @@
     </row>
     <row r="68" spans="1:8" ht="30">
       <c r="A68" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -9110,7 +9060,7 @@
     </row>
     <row r="69" spans="1:8" ht="30">
       <c r="A69" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -9124,7 +9074,7 @@
     </row>
     <row r="70" spans="1:8" ht="30">
       <c r="A70" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -9138,7 +9088,7 @@
     </row>
     <row r="71" spans="1:8" ht="30">
       <c r="A71" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -9152,7 +9102,7 @@
     </row>
     <row r="72" spans="1:8" ht="30">
       <c r="A72" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -9164,24 +9114,20 @@
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
     </row>
-    <row r="73" spans="1:8" ht="30">
+    <row r="73" spans="1:8">
       <c r="A73" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
-      <c r="F73" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="2" t="s">
-        <v>155</v>
-      </c>
+      <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -9460,63 +9406,45 @@
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
     </row>
-    <row r="102" spans="1:8">
-      <c r="A102" s="2"/>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A14:H74 A9:F13 H9:H13">
-    <cfRule type="expression" dxfId="22" priority="13">
+  <conditionalFormatting sqref="A13:H73 A9:F12 H9:H12">
+    <cfRule type="expression" dxfId="9" priority="13">
       <formula>$F9="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="14">
+    <cfRule type="expression" dxfId="8" priority="14">
       <formula>$F9="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="20" priority="11">
+    <cfRule type="expression" dxfId="7" priority="11">
       <formula>$F9="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="12">
+    <cfRule type="expression" dxfId="6" priority="12">
       <formula>$F9="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="18" priority="9">
+    <cfRule type="expression" dxfId="5" priority="9">
       <formula>$F10="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="10">
+    <cfRule type="expression" dxfId="4" priority="10">
       <formula>$F10="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="16" priority="7">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>$F11="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="8">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>$F11="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$F12="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$F12="Pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$F13="Fail"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$F13="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
